--- a/po_analysis_by_asin/B0D33M6CB7_po_data.xlsx
+++ b/po_analysis_by_asin/B0D33M6CB7_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45446</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>180</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45460</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>400</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45467</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>100</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45474</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>80</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45481</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>40</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45488</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>260</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45516</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>100</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45523</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>160</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45530</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>80</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45537</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>120</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45544</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>40</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45551</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>280</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45572</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>60</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45579</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>20</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45586</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>20</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45593</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>20</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45600</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>20</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45628</v>
+        <v>45634.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>20</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45635</v>
+        <v>45641.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>20</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45444</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>680</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45474</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>380</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45505</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>340</v>
@@ -659,7 +659,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45536</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>440</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45566</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>120</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45597</v>
+        <v>45626.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>20</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45627</v>
+        <v>45657.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>40</v>

--- a/po_analysis_by_asin/B0D33M6CB7_po_data.xlsx
+++ b/po_analysis_by_asin/B0D33M6CB7_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -629,7 +630,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -687,6 +688,425 @@
       </c>
       <c r="B8" t="n">
         <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>206</v>
+      </c>
+      <c r="C2" t="n">
+        <v>103.0797932281621</v>
+      </c>
+      <c r="D2" t="n">
+        <v>309.2714091580665</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>191</v>
+      </c>
+      <c r="C3" t="n">
+        <v>78.35638421520532</v>
+      </c>
+      <c r="D3" t="n">
+        <v>296.7790263754292</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>183</v>
+      </c>
+      <c r="C4" t="n">
+        <v>74.93544725018511</v>
+      </c>
+      <c r="D4" t="n">
+        <v>290.2888150852232</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>176</v>
+      </c>
+      <c r="C5" t="n">
+        <v>68.70469146428412</v>
+      </c>
+      <c r="D5" t="n">
+        <v>273.9389014587542</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>168</v>
+      </c>
+      <c r="C6" t="n">
+        <v>62.17738852583825</v>
+      </c>
+      <c r="D6" t="n">
+        <v>272.0584060953273</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>160</v>
+      </c>
+      <c r="C7" t="n">
+        <v>56.04196733229229</v>
+      </c>
+      <c r="D7" t="n">
+        <v>269.6610676512516</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>130</v>
+      </c>
+      <c r="C8" t="n">
+        <v>20.63457307624364</v>
+      </c>
+      <c r="D8" t="n">
+        <v>236.484944716161</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>122</v>
+      </c>
+      <c r="C9" t="n">
+        <v>16.50443240007944</v>
+      </c>
+      <c r="D9" t="n">
+        <v>233.3496141682121</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>114</v>
+      </c>
+      <c r="C10" t="n">
+        <v>11.01232093124245</v>
+      </c>
+      <c r="D10" t="n">
+        <v>218.6853822594048</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>107</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4960003169703763</v>
+      </c>
+      <c r="D11" t="n">
+        <v>213.3758177835345</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>99</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-9.037897505229024</v>
+      </c>
+      <c r="D12" t="n">
+        <v>209.7733976203321</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>91</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-13.66925073422756</v>
+      </c>
+      <c r="D13" t="n">
+        <v>199.478488171575</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>68</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-32.81806061195083</v>
+      </c>
+      <c r="D14" t="n">
+        <v>178.0026539615132</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>61</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-40.90415545273625</v>
+      </c>
+      <c r="D15" t="n">
+        <v>170.9603959523931</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>53</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-56.12179264040296</v>
+      </c>
+      <c r="D16" t="n">
+        <v>164.2743944942044</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>46</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-55.01872034198125</v>
+      </c>
+      <c r="D17" t="n">
+        <v>147.7151835688697</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>38</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-72.66188504763245</v>
+      </c>
+      <c r="D18" t="n">
+        <v>148.8637338525321</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>7</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-100.920708102669</v>
+      </c>
+      <c r="D19" t="n">
+        <v>120.3476869394683</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-104.6924616242809</v>
+      </c>
+      <c r="D20" t="n">
+        <v>107.1972519252471</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-117.2128987880874</v>
+      </c>
+      <c r="D21" t="n">
+        <v>102.5377045910008</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-124.6684202716729</v>
+      </c>
+      <c r="D22" t="n">
+        <v>92.4515448854842</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-126.3143224931872</v>
+      </c>
+      <c r="D23" t="n">
+        <v>79.01227849346722</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-138.6505067023624</v>
+      </c>
+      <c r="D24" t="n">
+        <v>75.24385728429395</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-143.5823729852044</v>
+      </c>
+      <c r="D25" t="n">
+        <v>70.86835714937172</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-150.9904144627669</v>
+      </c>
+      <c r="D26" t="n">
+        <v>66.9677586597146</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45690.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-156.2741661244176</v>
+      </c>
+      <c r="D27" t="n">
+        <v>49.78541855380369</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45697.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-166.2402533440738</v>
+      </c>
+      <c r="D28" t="n">
+        <v>47.79621960309726</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0D33M6CB7_po_data.xlsx
+++ b/po_analysis_by_asin/B0D33M6CB7_po_data.xlsx
@@ -701,7 +701,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -720,16 +720,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -738,12 +728,6 @@
       <c r="B2" t="n">
         <v>206</v>
       </c>
-      <c r="C2" t="n">
-        <v>103.0797932281621</v>
-      </c>
-      <c r="D2" t="n">
-        <v>309.2714091580665</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -752,12 +736,6 @@
       <c r="B3" t="n">
         <v>191</v>
       </c>
-      <c r="C3" t="n">
-        <v>78.35638421520532</v>
-      </c>
-      <c r="D3" t="n">
-        <v>296.7790263754292</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -766,12 +744,6 @@
       <c r="B4" t="n">
         <v>183</v>
       </c>
-      <c r="C4" t="n">
-        <v>74.93544725018511</v>
-      </c>
-      <c r="D4" t="n">
-        <v>290.2888150852232</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -780,12 +752,6 @@
       <c r="B5" t="n">
         <v>176</v>
       </c>
-      <c r="C5" t="n">
-        <v>68.70469146428412</v>
-      </c>
-      <c r="D5" t="n">
-        <v>273.9389014587542</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -794,12 +760,6 @@
       <c r="B6" t="n">
         <v>168</v>
       </c>
-      <c r="C6" t="n">
-        <v>62.17738852583825</v>
-      </c>
-      <c r="D6" t="n">
-        <v>272.0584060953273</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -808,12 +768,6 @@
       <c r="B7" t="n">
         <v>160</v>
       </c>
-      <c r="C7" t="n">
-        <v>56.04196733229229</v>
-      </c>
-      <c r="D7" t="n">
-        <v>269.6610676512516</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -822,12 +776,6 @@
       <c r="B8" t="n">
         <v>130</v>
       </c>
-      <c r="C8" t="n">
-        <v>20.63457307624364</v>
-      </c>
-      <c r="D8" t="n">
-        <v>236.484944716161</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -836,12 +784,6 @@
       <c r="B9" t="n">
         <v>122</v>
       </c>
-      <c r="C9" t="n">
-        <v>16.50443240007944</v>
-      </c>
-      <c r="D9" t="n">
-        <v>233.3496141682121</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -850,12 +792,6 @@
       <c r="B10" t="n">
         <v>114</v>
       </c>
-      <c r="C10" t="n">
-        <v>11.01232093124245</v>
-      </c>
-      <c r="D10" t="n">
-        <v>218.6853822594048</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -864,12 +800,6 @@
       <c r="B11" t="n">
         <v>107</v>
       </c>
-      <c r="C11" t="n">
-        <v>0.4960003169703763</v>
-      </c>
-      <c r="D11" t="n">
-        <v>213.3758177835345</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -878,12 +808,6 @@
       <c r="B12" t="n">
         <v>99</v>
       </c>
-      <c r="C12" t="n">
-        <v>-9.037897505229024</v>
-      </c>
-      <c r="D12" t="n">
-        <v>209.7733976203321</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -892,12 +816,6 @@
       <c r="B13" t="n">
         <v>91</v>
       </c>
-      <c r="C13" t="n">
-        <v>-13.66925073422756</v>
-      </c>
-      <c r="D13" t="n">
-        <v>199.478488171575</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -906,12 +824,6 @@
       <c r="B14" t="n">
         <v>68</v>
       </c>
-      <c r="C14" t="n">
-        <v>-32.81806061195083</v>
-      </c>
-      <c r="D14" t="n">
-        <v>178.0026539615132</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -920,12 +832,6 @@
       <c r="B15" t="n">
         <v>61</v>
       </c>
-      <c r="C15" t="n">
-        <v>-40.90415545273625</v>
-      </c>
-      <c r="D15" t="n">
-        <v>170.9603959523931</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -934,12 +840,6 @@
       <c r="B16" t="n">
         <v>53</v>
       </c>
-      <c r="C16" t="n">
-        <v>-56.12179264040296</v>
-      </c>
-      <c r="D16" t="n">
-        <v>164.2743944942044</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -948,12 +848,6 @@
       <c r="B17" t="n">
         <v>46</v>
       </c>
-      <c r="C17" t="n">
-        <v>-55.01872034198125</v>
-      </c>
-      <c r="D17" t="n">
-        <v>147.7151835688697</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -962,12 +856,6 @@
       <c r="B18" t="n">
         <v>38</v>
       </c>
-      <c r="C18" t="n">
-        <v>-72.66188504763245</v>
-      </c>
-      <c r="D18" t="n">
-        <v>148.8637338525321</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -976,12 +864,6 @@
       <c r="B19" t="n">
         <v>7</v>
       </c>
-      <c r="C19" t="n">
-        <v>-100.920708102669</v>
-      </c>
-      <c r="D19" t="n">
-        <v>120.3476869394683</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -990,12 +872,6 @@
       <c r="B20" t="n">
         <v>0</v>
       </c>
-      <c r="C20" t="n">
-        <v>-104.6924616242809</v>
-      </c>
-      <c r="D20" t="n">
-        <v>107.1972519252471</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1004,12 +880,6 @@
       <c r="B21" t="n">
         <v>0</v>
       </c>
-      <c r="C21" t="n">
-        <v>-117.2128987880874</v>
-      </c>
-      <c r="D21" t="n">
-        <v>102.5377045910008</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1018,12 +888,6 @@
       <c r="B22" t="n">
         <v>0</v>
       </c>
-      <c r="C22" t="n">
-        <v>-124.6684202716729</v>
-      </c>
-      <c r="D22" t="n">
-        <v>92.4515448854842</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1032,12 +896,6 @@
       <c r="B23" t="n">
         <v>0</v>
       </c>
-      <c r="C23" t="n">
-        <v>-126.3143224931872</v>
-      </c>
-      <c r="D23" t="n">
-        <v>79.01227849346722</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1046,12 +904,6 @@
       <c r="B24" t="n">
         <v>0</v>
       </c>
-      <c r="C24" t="n">
-        <v>-138.6505067023624</v>
-      </c>
-      <c r="D24" t="n">
-        <v>75.24385728429395</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1060,12 +912,6 @@
       <c r="B25" t="n">
         <v>0</v>
       </c>
-      <c r="C25" t="n">
-        <v>-143.5823729852044</v>
-      </c>
-      <c r="D25" t="n">
-        <v>70.86835714937172</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1074,12 +920,6 @@
       <c r="B26" t="n">
         <v>0</v>
       </c>
-      <c r="C26" t="n">
-        <v>-150.9904144627669</v>
-      </c>
-      <c r="D26" t="n">
-        <v>66.9677586597146</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1088,12 +928,6 @@
       <c r="B27" t="n">
         <v>0</v>
       </c>
-      <c r="C27" t="n">
-        <v>-156.2741661244176</v>
-      </c>
-      <c r="D27" t="n">
-        <v>49.78541855380369</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1101,12 +935,6 @@
       </c>
       <c r="B28" t="n">
         <v>0</v>
-      </c>
-      <c r="C28" t="n">
-        <v>-166.2402533440738</v>
-      </c>
-      <c r="D28" t="n">
-        <v>47.79621960309726</v>
       </c>
     </row>
   </sheetData>
